--- a/src/templates/Fouling Points template.xlsx
+++ b/src/templates/Fouling Points template.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Instruction" sheetId="3" r:id="rId2"/>
     <sheet name="Fouling_Point" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -79,9 +79,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -306,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,9 +320,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -351,18 +354,12 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -390,10 +387,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,6 +398,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,122 +970,122 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1090,7 +1093,7 @@
       <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>40408</v>
       </c>
     </row>
@@ -1098,7 +1101,7 @@
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1153,12 +1156,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1174,7 +1177,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,190 +1189,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="30"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="30"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="30"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="30"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="30"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="30"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="30"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="30"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="30"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="30"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="30"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="30"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="30"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="30"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="30"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="30"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="30"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="30"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="30"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="30"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="30"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="30"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="30"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="30"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="30"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="30"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="30"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="30"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="30"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="30"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="30"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="30"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="30"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="30"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="30"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="30"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="30"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="A53" s="30"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
+      <c r="A54" s="30"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="A55" s="30"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
+      <c r="A56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1377,5 +1380,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/templates/Fouling Points template.xlsx
+++ b/src/templates/Fouling Points template.xlsx
@@ -9,46 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="315" yWindow="585" windowWidth="22335" windowHeight="12465" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="315" yWindow="585" windowWidth="22335" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="EnTête" sheetId="1" r:id="rId1"/>
+    <sheet name="Header" sheetId="1" r:id="rId1"/>
     <sheet name="Instruction" sheetId="3" r:id="rId2"/>
     <sheet name="Fouling_Point" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Fouling_Point!$A$2:$D$56</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Kp</t>
-  </si>
-  <si>
-    <t>Fouling_Point Kp</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Switch</t>
-  </si>
-  <si>
-    <t>A Finmeccanica Company</t>
-  </si>
-  <si>
-    <t>Ansaldo STS France</t>
-  </si>
-  <si>
-    <t>Auteur</t>
-  </si>
-  <si>
-    <t>Vérificateur</t>
-  </si>
-  <si>
-    <t>Approbateur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>indice :</t>
   </si>
@@ -72,6 +48,30 @@
   </si>
   <si>
     <t>Template for Fouling Point Data</t>
+  </si>
+  <si>
+    <t>Switch Track</t>
+  </si>
+  <si>
+    <t>Hitachi Rail STS France</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Verifier</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>Switch Name</t>
+  </si>
+  <si>
+    <t>Switch KP</t>
+  </si>
+  <si>
+    <t>Fouling Point KP</t>
   </si>
 </sst>
 </file>
@@ -81,50 +81,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color indexed="10"/>
-      <name val="Franklin Gothic Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -135,13 +98,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,14 +172,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -282,128 +276,91 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,132 +381,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4011802</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C660C042-32B8-4E2F-8F40-3DC46B969BF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="523875" y="2143125"/>
-          <a:ext cx="4029075" cy="4229100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="127000" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="57150" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>325698</xdr:colOff>
+      <xdr:colOff>449523</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>75027</xdr:rowOff>
+      <xdr:rowOff>27402</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -564,8 +407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="3286125"/>
-          <a:ext cx="1771650" cy="1190625"/>
+          <a:off x="5101590" y="3232150"/>
+          <a:ext cx="1415358" cy="1176752"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -601,15 +444,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>452249</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>41302</xdr:rowOff>
+      <xdr:colOff>433199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,7 +468,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -633,8 +476,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7200900" y="3467100"/>
-          <a:ext cx="2790825" cy="771525"/>
+          <a:off x="6715125" y="3514725"/>
+          <a:ext cx="2223899" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -646,15 +489,131 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1027" name="Group 3"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="2066925"/>
+          <a:ext cx="4038600" cy="4229100"/>
+          <a:chOff x="64" y="217"/>
+          <a:chExt cx="424" cy="444"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1026" name="AutoShape 2"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="64" y="217"/>
+            <a:ext cx="424" cy="444"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cap="sq" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd type="none" w="med" len="med"/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="50800" dir="2700000" algn="tl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="39999"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Image 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="64" y="217"/>
+            <a:ext cx="425" cy="445"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -956,187 +915,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A6:G31"/>
+  <dimension ref="B6:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="3" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="13">
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
         <v>40408</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B13:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="MSPhotoEd.3" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="MSPhotoEd.3" shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -1145,24 +1075,25 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="B4:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>14</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>15</v>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1174,210 +1105,210 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28" style="15" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="14"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="14"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="14"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
+      <c r="A42" s="14"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="14"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="14"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
+      <c r="A50" s="14"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+      <c r="A51" s="14"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="14"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
+      <c r="A53" s="14"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
+      <c r="A54" s="14"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+      <c r="A55" s="14"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+      <c r="A56" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <autoFilter ref="A2:D56"/>
+  <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
